--- a/Mifos Automation Excels/Loan Product/2585-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-MIS-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2585-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-MIS-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>productname</t>
   </si>
@@ -224,7 +224,10 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>2585-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-MIS</t>
+    <t>2585-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-MIS-1st</t>
+  </si>
+  <si>
+    <t>258e</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,8 +633,8 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2585</v>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
